--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1985992.208542065</v>
+        <v>2045851.377644641</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6420672.511903706</v>
+        <v>5301029.811029742</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2837136.506768291</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7163135.79700568</v>
+        <v>7386022.897969716</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>327.6379814691554</v>
+        <v>170.7481240559725</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
@@ -671,13 +673,13 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>133.1960204883557</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.0541059837922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +898,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>172.8970899955588</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>381.8047781162003</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1056,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>28.20581591105179</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>93.60791859913577</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1138,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>59.32522789826623</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>28.63433626345935</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>15.5173436045161</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>186.5768411754254</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1382,13 +1384,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>271.4342543713333</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>370.70158293673</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -1540,13 +1542,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>76.26594387726834</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1625,7 +1627,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>18.53321769010431</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>97.56310642661438</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1765,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>128.2026151578589</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>129.1752199258839</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1825,10 +1827,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,7 +1852,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1901,13 +1903,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>314.0518665500859</v>
       </c>
       <c r="W17" t="n">
-        <v>334.0755358138493</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -2008,19 +2010,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>74.96543686894752</v>
+        <v>66.60889756510008</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>39.93142548241837</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>174.1372571702753</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
@@ -2144,10 +2146,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2245,10 +2247,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>103.2875137595518</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>55.62709520730909</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>356.9224994274309</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2330,7 +2332,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2476,25 +2478,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6341148424382553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>114.3571814058518</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>271.4342543713331</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -2570,7 +2572,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -2612,10 +2614,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>283.7777510779965</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>100.6116716601516</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>61.67634648149841</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,16 +2803,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>378.9769832968749</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2852,7 +2854,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>156.8550814710507</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>22.49891413969666</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>29.11907675700234</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3016,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3034,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>354.8624710341908</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -3041,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>178.563017865523</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>229.2663389906592</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3272,16 +3274,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>384.5327953590509</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>269.9562877695847</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -3424,25 +3426,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>38.79482613622854</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>249.8416865264124</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,16 +3505,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>49.02746394088942</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>374.7552726386488</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
@@ -3521,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>13.87811084309333</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3667,19 +3669,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>27.35334490128935</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3755,10 +3757,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>262.2425928248799</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>135.404858771672</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -3806,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>64.70969950833909</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>70.36042284486177</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3964,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0.684933600527438</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>373.8316553010464</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -4028,10 +4030,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4138,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>93.17492089670182</v>
       </c>
       <c r="X46" t="n">
-        <v>32.49641236331083</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>809.1541710813628</v>
+        <v>332.990926276226</v>
       </c>
       <c r="C2" t="n">
-        <v>478.2067150519129</v>
+        <v>160.5180736944356</v>
       </c>
       <c r="D2" t="n">
-        <v>477.7831891853775</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E2" t="n">
-        <v>467.4833777426783</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F2" t="n">
-        <v>450.4933697367699</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M2" t="n">
-        <v>497.1688317915616</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="N2" t="n">
-        <v>1014.011766457887</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O2" t="n">
-        <v>1530.854701124212</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4358,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1952.973206274203</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>1603.135651610684</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W2" t="n">
-        <v>1219.375350745852</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X2" t="n">
-        <v>1219.375350745852</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y2" t="n">
-        <v>1219.375350745852</v>
+        <v>339.1717019003114</v>
       </c>
     </row>
     <row r="3">
@@ -4410,25 +4412,25 @@
         <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
+        <v>41.76508562960225</v>
+      </c>
+      <c r="L3" t="n">
         <v>41.76508562960205</v>
       </c>
-      <c r="L3" t="n">
-        <v>158.3214934345131</v>
-      </c>
       <c r="M3" t="n">
-        <v>158.3214934345131</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N3" t="n">
-        <v>675.1644281008383</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O3" t="n">
-        <v>1192.007362767164</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1014.752890035065</v>
+        <v>329.2045039635594</v>
       </c>
       <c r="C4" t="n">
-        <v>843.6595175967814</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="D4" t="n">
-        <v>684.1648729196913</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E4" t="n">
-        <v>523.2540577880108</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F4" t="n">
-        <v>358.622931898602</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G4" t="n">
-        <v>191.3725408241454</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U4" t="n">
-        <v>1288.365834796576</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="V4" t="n">
-        <v>1288.365834796576</v>
+        <v>742.815603291408</v>
       </c>
       <c r="W4" t="n">
-        <v>1288.365834796576</v>
+        <v>463.7459388002824</v>
       </c>
       <c r="X4" t="n">
-        <v>1288.365834796576</v>
+        <v>329.2045039635594</v>
       </c>
       <c r="Y4" t="n">
-        <v>1202.452596429109</v>
+        <v>329.2045039635594</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1292.371709779047</v>
+        <v>654.2465468795142</v>
       </c>
       <c r="C5" t="n">
-        <v>882.247119092317</v>
+        <v>648.1623602331883</v>
       </c>
       <c r="D5" t="n">
-        <v>477.7831891853775</v>
+        <v>647.7388343666529</v>
       </c>
       <c r="E5" t="n">
-        <v>467.4833777426783</v>
+        <v>233.3986188835496</v>
       </c>
       <c r="F5" t="n">
-        <v>46.45296569636579</v>
+        <v>216.4086108776412</v>
       </c>
       <c r="G5" t="n">
         <v>41.76508562960205</v>
@@ -4565,25 +4567,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>692.8507596625949</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>1209.69369432892</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>1209.69369432892</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N5" t="n">
-        <v>1209.69369432892</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O5" t="n">
-        <v>1726.536628995245</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4595,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X5" t="n">
-        <v>1702.592889443536</v>
+        <v>1465.404399595914</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.592889443536</v>
+        <v>1064.467726544004</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4649,19 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>751.4208778585605</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>1268.263812524886</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N6" t="n">
-        <v>1268.263812524886</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O6" t="n">
-        <v>1785.106747191211</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P6" t="n">
         <v>2088.254281480102</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>829.0016419578417</v>
+        <v>488.6991486406494</v>
       </c>
       <c r="C7" t="n">
-        <v>800.5109188153651</v>
+        <v>317.6057762023659</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H7" t="n">
         <v>158.1111315252759</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1476.610529120012</v>
       </c>
       <c r="T7" t="n">
-        <v>1299.499495805762</v>
+        <v>1476.610529120012</v>
       </c>
       <c r="U7" t="n">
-        <v>1016.701348351886</v>
+        <v>1193.812381666136</v>
       </c>
       <c r="V7" t="n">
-        <v>1016.701348351886</v>
+        <v>1193.812381666136</v>
       </c>
       <c r="W7" t="n">
-        <v>1016.701348351886</v>
+        <v>914.7427171750103</v>
       </c>
       <c r="X7" t="n">
-        <v>1016.701348351886</v>
+        <v>676.3988550346937</v>
       </c>
       <c r="Y7" t="n">
-        <v>1016.701348351886</v>
+        <v>676.3988550346937</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>543.7918484562147</v>
+        <v>2231.056920380548</v>
       </c>
       <c r="C8" t="n">
-        <v>133.6672577694848</v>
+        <v>1820.932329693819</v>
       </c>
       <c r="D8" t="n">
-        <v>73.74278514497341</v>
+        <v>1416.468399786879</v>
       </c>
       <c r="E8" t="n">
-        <v>63.44297370227418</v>
+        <v>1002.128184303776</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>581.0977722574635</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>497.1688317915616</v>
+        <v>1558.042465712245</v>
       </c>
       <c r="M8" t="n">
-        <v>1014.011766457887</v>
+        <v>2334.361056703999</v>
       </c>
       <c r="N8" t="n">
-        <v>1530.854701124212</v>
+        <v>3087.542073342617</v>
       </c>
       <c r="O8" t="n">
-        <v>1530.854701124212</v>
+        <v>3731.172929759722</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>4271.962701385146</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>4049.756217332004</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>3792.695725591514</v>
       </c>
       <c r="V8" t="n">
-        <v>1738.416726816583</v>
+        <v>3442.858170927995</v>
       </c>
       <c r="W8" t="n">
-        <v>1354.656425951752</v>
+        <v>3442.858170927995</v>
       </c>
       <c r="X8" t="n">
-        <v>954.0130281207041</v>
+        <v>3042.214773096948</v>
       </c>
       <c r="Y8" t="n">
-        <v>954.0130281207041</v>
+        <v>2641.278100045038</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>690.384199457534</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>690.384199457534</v>
+        <v>747.105897386657</v>
       </c>
       <c r="M9" t="n">
-        <v>1192.007362767164</v>
+        <v>747.105897386657</v>
       </c>
       <c r="N9" t="n">
-        <v>1192.007362767164</v>
+        <v>1570.801028829339</v>
       </c>
       <c r="O9" t="n">
-        <v>1708.850297433489</v>
+        <v>1570.801028829339</v>
       </c>
       <c r="P9" t="n">
-        <v>1708.850297433489</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1980.264271594411</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1820.922407781419</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1020.300919787893</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>650.137706920372</v>
+        <v>534.2452883269079</v>
       </c>
       <c r="C10" t="n">
-        <v>634.4636224713659</v>
+        <v>534.2452883269079</v>
       </c>
       <c r="D10" t="n">
-        <v>474.9689777942758</v>
+        <v>534.2452883269079</v>
       </c>
       <c r="E10" t="n">
-        <v>474.9689777942758</v>
+        <v>534.2452883269079</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>369.6141624374992</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>470.2970630371111</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>759.5611194776044</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1040.399901871855</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1299.960512198329</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1505.635952447941</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1485.891263925851</v>
+        <v>1429.024853968129</v>
       </c>
       <c r="T10" t="n">
-        <v>1485.891263925851</v>
+        <v>1189.476114944831</v>
       </c>
       <c r="U10" t="n">
-        <v>1203.093116471976</v>
+        <v>1001.014659212078</v>
       </c>
       <c r="V10" t="n">
-        <v>929.2073714114977</v>
+        <v>1001.014659212078</v>
       </c>
       <c r="W10" t="n">
-        <v>650.137706920372</v>
+        <v>721.9449947209523</v>
       </c>
       <c r="X10" t="n">
-        <v>650.137706920372</v>
+        <v>721.9449947209523</v>
       </c>
       <c r="Y10" t="n">
-        <v>650.137706920372</v>
+        <v>721.9449947209523</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2036.755718562691</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C11" t="n">
-        <v>1626.631127875961</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D11" t="n">
-        <v>1222.167197969021</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E11" t="n">
-        <v>807.8269824859182</v>
+        <v>1283.530171043528</v>
       </c>
       <c r="F11" t="n">
-        <v>386.7965704396057</v>
+        <v>862.4997589972158</v>
       </c>
       <c r="G11" t="n">
-        <v>386.7965704396057</v>
+        <v>453.771474890048</v>
       </c>
       <c r="H11" t="n">
-        <v>75.8880730673237</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>75.8880730673237</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>1580.824445456356</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1580.824445456356</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2334.005462094974</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2977.636318512079</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3506.79301643123</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3753.84700767662</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3794.403653366185</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3794.403653366185</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>3572.197169313044</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>3572.197169313044</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>3222.359614649524</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>2847.91357127909</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>2847.91357127909</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>2446.97689822718</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2426.745299402219</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>2292.750228151165</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>2175.853070370557</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>2055.360254362885</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>1946.40037454539</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>1839.410261859729</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>1768.663048895444</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>1747.914457515685</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>1940.727315078318</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>1940.727315078318</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L12" t="n">
-        <v>1940.727315078318</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M12" t="n">
-        <v>1940.727315078318</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N12" t="n">
-        <v>2149.336686285147</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O12" t="n">
-        <v>2853.293776831041</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P12" t="n">
-        <v>3414.999669319571</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>3764.844134003555</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>3794.403653366185</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>3686.413643480494</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>3527.071779667502</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>3329.720968805721</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>3116.009441798754</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>2902.776273535083</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>2726.450291673976</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>2567.048332037806</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1165.22192336846</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="C13" t="n">
-        <v>994.1285509301767</v>
+        <v>655.3165903355377</v>
       </c>
       <c r="D13" t="n">
-        <v>834.6339062530867</v>
+        <v>495.8219456584478</v>
       </c>
       <c r="E13" t="n">
-        <v>673.7230911214062</v>
+        <v>334.9111305267672</v>
       </c>
       <c r="F13" t="n">
-        <v>509.0919652319975</v>
+        <v>170.2800046373585</v>
       </c>
       <c r="G13" t="n">
-        <v>341.8415741575409</v>
+        <v>170.2800046373585</v>
       </c>
       <c r="H13" t="n">
-        <v>192.2341189629976</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>75.8880730673237</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>89.97062247253422</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>793.6841069153261</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1605.286969688174</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>1605.286969688174</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V13" t="n">
-        <v>1605.286969688174</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W13" t="n">
-        <v>1605.286969688174</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="X13" t="n">
-        <v>1577.65732837374</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="Y13" t="n">
-        <v>1352.921629762505</v>
+        <v>826.4099627738212</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2464.204424579055</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
-        <v>2054.079833892325</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.615903985386</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>1235.275688502282</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>814.2452764559698</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>405.516992348802</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>94.60849497651998</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>75.8880730673237</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>1580.824445456356</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>2357.143036448109</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>3110.324053086727</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3110.324053086727</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3432.686000881328</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3753.84700767662</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3794.403653366185</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3659.122578160286</v>
+        <v>4563.636292181024</v>
       </c>
       <c r="T14" t="n">
-        <v>3659.122578160286</v>
+        <v>4341.429808127883</v>
       </c>
       <c r="U14" t="n">
-        <v>3659.122578160286</v>
+        <v>4084.369316387393</v>
       </c>
       <c r="V14" t="n">
-        <v>3659.122578160286</v>
+        <v>3734.531761723874</v>
       </c>
       <c r="W14" t="n">
-        <v>3275.362277295454</v>
+        <v>3350.771460859042</v>
       </c>
       <c r="X14" t="n">
-        <v>3275.362277295454</v>
+        <v>2950.128063027995</v>
       </c>
       <c r="Y14" t="n">
-        <v>2874.425604243544</v>
+        <v>2549.191389976085</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>620.7238437028038</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>503.8266859221962</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>383.3338699145243</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>96.63666444708353</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>75.8880730673237</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>268.7009306299569</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>268.7009306299569</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>268.7009306299569</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M15" t="n">
-        <v>268.7009306299569</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N15" t="n">
-        <v>477.3103018367858</v>
+        <v>1615.520903630173</v>
       </c>
       <c r="O15" t="n">
-        <v>1181.26739238268</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P15" t="n">
-        <v>1742.97328487121</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2092.817749555194</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>75.8880730673237</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="C16" t="n">
-        <v>75.8880730673237</v>
+        <v>383.6521038908477</v>
       </c>
       <c r="D16" t="n">
-        <v>75.8880730673237</v>
+        <v>383.6521038908477</v>
       </c>
       <c r="E16" t="n">
-        <v>75.8880730673237</v>
+        <v>222.7412887591672</v>
       </c>
       <c r="F16" t="n">
-        <v>75.8880730673237</v>
+        <v>222.7412887591672</v>
       </c>
       <c r="G16" t="n">
-        <v>75.8880730673237</v>
+        <v>222.7412887591672</v>
       </c>
       <c r="H16" t="n">
-        <v>75.8880730673237</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
-        <v>75.8880730673237</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>89.97062247253422</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>793.6841069153261</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1520.014251363573</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1389.534231236418</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.98549221312</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U16" t="n">
-        <v>867.1873447592441</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V16" t="n">
-        <v>593.301599698766</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W16" t="n">
-        <v>314.2319352076403</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="X16" t="n">
-        <v>75.8880730673237</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.8880730673237</v>
+        <v>554.7454763291312</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E17" t="n">
         <v>1320.262653899312</v>
@@ -5516,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5549,16 +5551,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3730.41272590526</v>
       </c>
       <c r="W17" t="n">
-        <v>3360.349242692484</v>
+        <v>3346.652425040428</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>2946.009027209381</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L18" t="n">
-        <v>549.0499539559215</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M18" t="n">
-        <v>549.0499539559215</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="N18" t="n">
-        <v>1228.182536368609</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="O18" t="n">
-        <v>1228.182536368609</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P18" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1182.57754799176</v>
+        <v>588.462840695405</v>
       </c>
       <c r="C19" t="n">
-        <v>1011.484175553476</v>
+        <v>417.3694682571215</v>
       </c>
       <c r="D19" t="n">
-        <v>851.989530876386</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5698,25 +5700,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1461.647212482885</v>
+        <v>1283.696393154561</v>
       </c>
       <c r="U19" t="n">
-        <v>1461.647212482885</v>
+        <v>1000.898245700685</v>
       </c>
       <c r="V19" t="n">
-        <v>1461.647212482885</v>
+        <v>1000.898245700685</v>
       </c>
       <c r="W19" t="n">
-        <v>1182.57754799176</v>
+        <v>1000.898245700685</v>
       </c>
       <c r="X19" t="n">
-        <v>1182.57754799176</v>
+        <v>1000.898245700685</v>
       </c>
       <c r="Y19" t="n">
-        <v>1182.57754799176</v>
+        <v>776.1625470894494</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>853.2152523846366</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>444.4869682774688</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>133.5784709051868</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5753,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5780,22 +5782,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4351.007589961326</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4093.947098220835</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3744.109543557316</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3360.349242692484</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C21" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D21" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E21" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F21" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G21" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H21" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>2808.508546243273</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>2808.508546243273</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>2808.508546243273</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>3651.48562693784</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="N21" t="n">
-        <v>3651.48562693784</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O21" t="n">
-        <v>4100.47899204261</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P21" t="n">
-        <v>4662.18488453114</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S21" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T21" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U21" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V21" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W21" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X21" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y21" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3628.005130915072</v>
+        <v>584.7425299376769</v>
       </c>
       <c r="C22" t="n">
-        <v>3456.911758476788</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D22" t="n">
-        <v>3297.417113799698</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E22" t="n">
-        <v>3297.417113799698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>4557.854062551794</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T22" t="n">
-        <v>4557.854062551794</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U22" t="n">
-        <v>4557.854062551794</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V22" t="n">
-        <v>4557.854062551794</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W22" t="n">
-        <v>4278.784398060669</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="X22" t="n">
-        <v>4040.440535920352</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="Y22" t="n">
-        <v>3815.704837309116</v>
+        <v>772.4422363317212</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G23" t="n">
         <v>93.2436976906228</v>
@@ -5996,13 +5998,13 @@
         <v>1598.180070079655</v>
       </c>
       <c r="M23" t="n">
-        <v>2374.498661071408</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N23" t="n">
-        <v>3127.679677710026</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P23" t="n">
         <v>4300.467232046283</v>
@@ -6075,13 +6077,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P24" t="n">
         <v>2139.732893541123</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1066.872022138952</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="C25" t="n">
-        <v>895.7786497006689</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D25" t="n">
-        <v>736.2840050235789</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>575.3731898918984</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>410.7420640024897</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>243.4916729280331</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>93.88421773348972</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6172,25 +6174,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T25" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U25" t="n">
-        <v>1254.571728532997</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V25" t="n">
-        <v>1254.571728532997</v>
+        <v>794.2942153524291</v>
       </c>
       <c r="W25" t="n">
-        <v>1254.571728532997</v>
+        <v>794.2942153524291</v>
       </c>
       <c r="X25" t="n">
-        <v>1254.571728532997</v>
+        <v>555.9503532121125</v>
       </c>
       <c r="Y25" t="n">
-        <v>1254.571728532997</v>
+        <v>440.4380487617572</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H26" t="n">
         <v>179.5954603735497</v>
@@ -6227,7 +6229,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6260,16 +6262,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>4047.636833531609</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6308,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N27" t="n">
-        <v>1578.027001052593</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>584.7425299376769</v>
+        <v>311.2176947581669</v>
       </c>
       <c r="C28" t="n">
-        <v>413.6491574993933</v>
+        <v>311.2176947581669</v>
       </c>
       <c r="D28" t="n">
-        <v>254.1545128223033</v>
+        <v>311.2176947581669</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>311.2176947581669</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6409,25 +6411,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T28" t="n">
-        <v>1297.821136963575</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U28" t="n">
-        <v>1297.821136963575</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V28" t="n">
-        <v>1297.821136963575</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W28" t="n">
-        <v>1235.521797083273</v>
+        <v>549.5615568984836</v>
       </c>
       <c r="X28" t="n">
-        <v>997.1779349429565</v>
+        <v>311.2176947581669</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.4422363317212</v>
+        <v>311.2176947581669</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E29" t="n">
-        <v>1233.910891216385</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F29" t="n">
-        <v>812.8804791700727</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6545,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>453.2449236514532</v>
+        <v>276.8806887209868</v>
       </c>
       <c r="C31" t="n">
-        <v>282.1515512131697</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="D31" t="n">
-        <v>122.6569065360797</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E31" t="n">
         <v>93.2436976906228</v>
@@ -6643,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T31" t="n">
-        <v>1383.093855288175</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U31" t="n">
-        <v>1383.093855288175</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V31" t="n">
-        <v>1383.093855288175</v>
+        <v>794.2942153524291</v>
       </c>
       <c r="W31" t="n">
-        <v>1104.024190797049</v>
+        <v>515.2245508613034</v>
       </c>
       <c r="X31" t="n">
-        <v>865.6803286567329</v>
+        <v>276.8806887209868</v>
       </c>
       <c r="Y31" t="n">
-        <v>640.9446300454975</v>
+        <v>276.8806887209868</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2503.174400507722</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2093.049809820992</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6743,7 +6745,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2913.395580172211</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>2615.69568868064</v>
+        <v>213.3947382540484</v>
       </c>
       <c r="L33" t="n">
-        <v>2615.69568868064</v>
+        <v>213.3947382540484</v>
       </c>
       <c r="M33" t="n">
-        <v>3458.672769375206</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="N33" t="n">
-        <v>4332.330861486824</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="O33" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P33" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.6491574993933</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>413.6491574993933</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
         <v>93.2436976906228</v>
@@ -6889,19 +6891,19 @@
         <v>1111.429368843485</v>
       </c>
       <c r="U34" t="n">
-        <v>1111.429368843485</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V34" t="n">
-        <v>1111.429368843485</v>
+        <v>597.0490607929837</v>
       </c>
       <c r="W34" t="n">
-        <v>832.3597043523594</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="X34" t="n">
-        <v>594.0158422120428</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y34" t="n">
-        <v>594.0158422120428</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6922,13 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F35" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>452.2785793327262</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
         <v>179.5954603735497</v>
@@ -7014,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N36" t="n">
-        <v>1627.989961721529</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>2106.908073983737</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>2106.908073983737</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1182.57754799176</v>
+        <v>132.4303907575203</v>
       </c>
       <c r="C37" t="n">
-        <v>1011.484175553476</v>
+        <v>132.4303907575203</v>
       </c>
       <c r="D37" t="n">
-        <v>851.989530876386</v>
+        <v>132.4303907575203</v>
       </c>
       <c r="E37" t="n">
-        <v>691.0787157447054</v>
+        <v>132.4303907575203</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4475898552967</v>
+        <v>132.4303907575203</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7117,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.642594311473</v>
+        <v>837.543623783007</v>
       </c>
       <c r="W37" t="n">
-        <v>1370.277254385804</v>
+        <v>558.4739592918813</v>
       </c>
       <c r="X37" t="n">
-        <v>1370.277254385804</v>
+        <v>320.1300971515647</v>
       </c>
       <c r="Y37" t="n">
-        <v>1370.277254385804</v>
+        <v>320.1300971515647</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7153,22 @@
         <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1648.251106699488</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="E38" t="n">
-        <v>1233.910891216385</v>
+        <v>1277.772921285978</v>
       </c>
       <c r="F38" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7257,22 +7259,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>562.1177108836107</v>
+        <v>182.7137268369972</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4222.119838211426</v>
+        <v>591.0821058804529</v>
       </c>
       <c r="C40" t="n">
-        <v>4051.026465773143</v>
+        <v>419.9887334421693</v>
       </c>
       <c r="D40" t="n">
-        <v>3891.531821096053</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E40" t="n">
-        <v>3730.621005964372</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F40" t="n">
-        <v>3565.989880074963</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G40" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U40" t="n">
-        <v>4662.18488453114</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V40" t="n">
-        <v>4662.18488453114</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="W40" t="n">
-        <v>4662.18488453114</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="X40" t="n">
-        <v>4634.555243216706</v>
+        <v>829.8360982725906</v>
       </c>
       <c r="Y40" t="n">
-        <v>4409.819544605471</v>
+        <v>605.1003996613553</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1730.111575390637</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C41" t="n">
-        <v>1319.986984703907</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D41" t="n">
-        <v>1319.986984703907</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E41" t="n">
-        <v>905.646769220804</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F41" t="n">
-        <v>484.6163571744916</v>
+        <v>853.2152523846366</v>
       </c>
       <c r="G41" t="n">
-        <v>75.8880730673237</v>
+        <v>444.4869682774688</v>
       </c>
       <c r="H41" t="n">
-        <v>75.8880730673237</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>75.8880730673237</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>338.9684458977533</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>1051.559845709991</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1827.878436701745</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2581.059453340363</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>3224.690309757468</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3753.84700767662</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3753.84700767662</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3794.403653366185</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3659.122578160286</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>3522.349993542435</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>3265.289501801945</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>2915.451947138426</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>2531.691646273594</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>2131.048248442547</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>1730.111575390637</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>620.7238437028038</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>503.8266859221962</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>383.3338699145243</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>96.63666444708353</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>75.8880730673237</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>75.8880730673237</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>75.8880730673237</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>75.8880730673237</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M42" t="n">
-        <v>918.8651537618904</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N42" t="n">
-        <v>1792.523245873508</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O42" t="n">
-        <v>2122.377268917824</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>626.2879916022091</v>
+        <v>3292.280632587379</v>
       </c>
       <c r="C43" t="n">
-        <v>560.924658765503</v>
+        <v>3292.280632587379</v>
       </c>
       <c r="D43" t="n">
-        <v>401.430014088413</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E43" t="n">
-        <v>240.5191989567325</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F43" t="n">
-        <v>75.8880730673237</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G43" t="n">
-        <v>75.8880730673237</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H43" t="n">
-        <v>75.8880730673237</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I43" t="n">
-        <v>75.8880730673237</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J43" t="n">
-        <v>89.97062247253422</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K43" t="n">
-        <v>244.5229501947722</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L43" t="n">
-        <v>504.4200504748327</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M43" t="n">
-        <v>793.6841069153261</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N43" t="n">
-        <v>1074.522889309576</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O43" t="n">
-        <v>1334.08349963605</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.758939885663</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q43" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R43" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S43" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T43" t="n">
-        <v>1605.286969688174</v>
+        <v>4591.113750344411</v>
       </c>
       <c r="U43" t="n">
-        <v>1605.286969688174</v>
+        <v>4308.315602890535</v>
       </c>
       <c r="V43" t="n">
-        <v>1331.401224627696</v>
+        <v>4034.429857830057</v>
       </c>
       <c r="W43" t="n">
-        <v>1052.33156013657</v>
+        <v>3755.360193338931</v>
       </c>
       <c r="X43" t="n">
-        <v>813.9876979962535</v>
+        <v>3517.016331198615</v>
       </c>
       <c r="Y43" t="n">
-        <v>813.9876979962535</v>
+        <v>3292.280632587379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1713.723472084488</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C44" t="n">
-        <v>1303.598881397758</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D44" t="n">
-        <v>1302.907029276013</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E44" t="n">
-        <v>1302.907029276013</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>881.8766172297004</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>473.1483331225326</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>162.2398357502506</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>75.8880730673237</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>330.073544535078</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1042.664944347316</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1818.98353533907</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2572.164551977688</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>3215.795408394793</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3473.242646570893</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3794.403653366185</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3794.403653366185</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3659.122578160286</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>3659.122578160286</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>3659.122578160286</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>3309.285023496766</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>2925.524722631935</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>2524.881324800887</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2123.944651748977</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>620.7238437028038</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>503.8266859221962</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>383.3338699145243</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>96.63666444708353</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>75.8880730673237</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>75.8880730673237</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>75.8880730673237</v>
+        <v>635.6676409272679</v>
       </c>
       <c r="L45" t="n">
-        <v>75.8880730673237</v>
+        <v>1296.755812846556</v>
       </c>
       <c r="M45" t="n">
-        <v>75.8880730673237</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N45" t="n">
-        <v>949.5461651789416</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
-        <v>1560.671376429294</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>225.495528261867</v>
+        <v>3558.234133677597</v>
       </c>
       <c r="C46" t="n">
-        <v>225.495528261867</v>
+        <v>3558.234133677597</v>
       </c>
       <c r="D46" t="n">
-        <v>225.495528261867</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="E46" t="n">
-        <v>225.495528261867</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="F46" t="n">
-        <v>225.495528261867</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="G46" t="n">
-        <v>225.495528261867</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H46" t="n">
-        <v>75.8880730673237</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I46" t="n">
-        <v>75.8880730673237</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J46" t="n">
-        <v>89.97062247253422</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K46" t="n">
-        <v>244.5229501947722</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L46" t="n">
-        <v>504.4200504748327</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M46" t="n">
-        <v>793.6841069153261</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N46" t="n">
-        <v>1074.522889309576</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O46" t="n">
-        <v>1334.08349963605</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.758939885663</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q46" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R46" t="n">
-        <v>1520.014251363573</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S46" t="n">
-        <v>1333.622483243484</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T46" t="n">
-        <v>1094.073744220186</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U46" t="n">
-        <v>811.2755967663099</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="V46" t="n">
-        <v>537.3898517058319</v>
+        <v>3877.085914002672</v>
       </c>
       <c r="W46" t="n">
-        <v>258.3201872147063</v>
+        <v>3782.969832288832</v>
       </c>
       <c r="X46" t="n">
-        <v>225.495528261867</v>
+        <v>3782.969832288832</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.495528261867</v>
+        <v>3558.234133677597</v>
       </c>
     </row>
   </sheetData>
@@ -7976,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>339.7024893595825</v>
       </c>
       <c r="M2" t="n">
-        <v>553.2940084590249</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
         <v>614.9758611266449</v>
@@ -8000,7 +8002,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,13 +8063,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>173.8482690683349</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>200.7852390175288</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
@@ -8079,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>490.0456851936601</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>552.9160747585987</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8295,13 +8297,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>425.427124839344</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
@@ -8310,7 +8312,7 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>360.4692655976428</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>555.4891820648243</v>
+        <v>782.0306179295947</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
@@ -8529,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>564.2543476875383</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>885.2086776792868</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8696,7 +8698,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
         <v>853.701196452193</v>
@@ -8708,7 +8710,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>339.5832905056062</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8775,10 +8777,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>651.5171678328039</v>
       </c>
       <c r="N12" t="n">
-        <v>263.9099299663046</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
@@ -8787,10 +8789,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8939,10 +8941,10 @@
         <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>419.2674923663391</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
@@ -9006,7 +9008,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
@@ -9015,13 +9017,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>263.9099299663044</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>204.0221919942796</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>410.0708656603775</v>
@@ -9240,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>167.8946794718224</v>
       </c>
       <c r="N18" t="n">
-        <v>739.1859008813134</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,25 +9482,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>448.4101882023532</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>511.2801306209802</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9723,16 +9725,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>841.9067396726143</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9954,28 +9956,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>424.7983178153489</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,28 +10193,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>461.302781541648</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,7 +10430,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>177.1904702224191</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
@@ -10437,19 +10439,19 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629454</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,10 +10664,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
         <v>723.8803540323523</v>
@@ -10674,16 +10676,16 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>574.6635313430244</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>89.84900189613728</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10905,10 +10907,10 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>529.7246381472005</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>147.9380505529371</v>
       </c>
       <c r="N39" t="n">
         <v>935.6763147186165</v>
@@ -10920,10 +10922,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11062,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>98.12113852440433</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11078,7 +11080,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11142,19 +11144,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>885.2086776792871</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11297,7 +11299,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11312,13 +11314,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>353.6970786102778</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,25 +11375,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>408.9682935664456</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>675.0496721821737</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>36.36515802722585</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>9.2211149194531</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>71.84543676532957</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23469,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>66.95502736599326</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>36.36515802722576</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,13 +23655,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
@@ -23668,7 +23670,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>19.90876548473901</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23738,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23789,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>32.28731256679816</v>
       </c>
       <c r="W17" t="n">
-        <v>45.84716204233376</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>162.1878147641174</v>
+        <v>170.5443540679648</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>45.5568195736792</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>45.84716204233442</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24133,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>81.24033667933702</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>166.8612464178138</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>49.1964684404137</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24218,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>114.5484705942789</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>108.1311602192711</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>134.6847134965115</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24458,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24500,10 +24502,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>96.14494677818658</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>62.37314297036308</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
@@ -24619,7 +24621,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>214.602621364716</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24689,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>25.66401796922122</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24740,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>223.0676163851324</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>146.883524574204</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>130.1826302233614</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24920,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>45.55681957367926</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.259691464580953</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -25129,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>41.88054861921404</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25160,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>32.28731256679839</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>37.84312462897446</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>126.7830610274835</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>26.43728131980197</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -25391,16 +25393,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>42.06483528720054</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>171.9445984870106</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25612,7 +25614,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>208.6070786176241</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>45.55681957367926</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>84.57956044093777</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>104.6727392055616</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25837,10 +25839,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>166.7928287882031</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>399.7343570073426</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>36.36515802722585</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25916,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>183.1040469495125</v>
       </c>
       <c r="X46" t="n">
-        <v>203.4640111556026</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>680500.1596655246</v>
+        <v>693576.1442430416</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>551333.8088808614</v>
+        <v>623479.0724909452</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>551333.8088808614</v>
+        <v>623479.0724909453</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>623479.0724909452</v>
+        <v>623479.0724909453</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>623479.0724909452</v>
+        <v>623479.0724909453</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>623479.0724909453</v>
+        <v>623479.0724909452</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>623479.0724909453</v>
+        <v>623479.0724909455</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>623479.0724909452</v>
+        <v>623479.0724909453</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>551333.8088808614</v>
+        <v>623479.0724909453</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>551333.8088808613</v>
+        <v>623479.0724909453</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>488647.1790973708</v>
       </c>
       <c r="E2" t="n">
-        <v>384210.2966792092</v>
+        <v>434473.0013026408</v>
       </c>
       <c r="F2" t="n">
-        <v>384210.2966792093</v>
+        <v>434473.0013026408</v>
       </c>
       <c r="G2" t="n">
         <v>434473.0013026407</v>
       </c>
       <c r="H2" t="n">
-        <v>434473.0013026405</v>
+        <v>434473.0013026408</v>
       </c>
       <c r="I2" t="n">
+        <v>434473.0013026408</v>
+      </c>
+      <c r="J2" t="n">
+        <v>434473.0013026408</v>
+      </c>
+      <c r="K2" t="n">
+        <v>434473.0013026408</v>
+      </c>
+      <c r="L2" t="n">
+        <v>434473.0013026408</v>
+      </c>
+      <c r="M2" t="n">
+        <v>434473.0013026407</v>
+      </c>
+      <c r="N2" t="n">
         <v>434473.0013026406</v>
       </c>
-      <c r="J2" t="n">
-        <v>434473.0013026405</v>
-      </c>
-      <c r="K2" t="n">
-        <v>434473.0013026407</v>
-      </c>
-      <c r="L2" t="n">
-        <v>434473.0013026407</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>434473.0013026408</v>
       </c>
-      <c r="N2" t="n">
-        <v>434473.0013026407</v>
-      </c>
-      <c r="O2" t="n">
-        <v>384210.2966792094</v>
-      </c>
       <c r="P2" t="n">
-        <v>384210.2966792092</v>
+        <v>434473.0013026406</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>127354.6667897507</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59461.45468596168</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>106294.8120178748</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,31 +26423,31 @@
         <v>184088.9587438941</v>
       </c>
       <c r="D4" t="n">
-        <v>184088.9587438941</v>
+        <v>99895.51658519972</v>
       </c>
       <c r="E4" t="n">
-        <v>39688.97475648369</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="F4" t="n">
-        <v>39688.97475648369</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="G4" t="n">
         <v>44919.86535090264</v>
       </c>
       <c r="H4" t="n">
+        <v>44919.86535090264</v>
+      </c>
+      <c r="I4" t="n">
+        <v>44919.86535090264</v>
+      </c>
+      <c r="J4" t="n">
         <v>44919.86535090265</v>
       </c>
-      <c r="I4" t="n">
-        <v>44919.86535090265</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>44919.86535090264</v>
       </c>
-      <c r="K4" t="n">
-        <v>44919.86535090265</v>
-      </c>
       <c r="L4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="M4" t="n">
         <v>44919.86535090264</v>
@@ -26454,10 +26456,10 @@
         <v>44919.86535090264</v>
       </c>
       <c r="O4" t="n">
-        <v>39688.97475648369</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="P4" t="n">
-        <v>39688.97475648369</v>
+        <v>44919.86535090264</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>57674.935531166</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>57674.935531166</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>57674.935531166</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>57674.935531166</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64233.64538186508</v>
+        <v>64233.64538186515</v>
       </c>
       <c r="C6" t="n">
         <v>239189.1552749791</v>
       </c>
       <c r="D6" t="n">
-        <v>239189.1552749792</v>
+        <v>117923.1222469023</v>
       </c>
       <c r="E6" t="n">
-        <v>159491.7196018088</v>
+        <v>291718.9715259306</v>
       </c>
       <c r="F6" t="n">
-        <v>286846.3863915596</v>
+        <v>318687.9257068649</v>
       </c>
       <c r="G6" t="n">
-        <v>259226.471020903</v>
+        <v>318687.9257068647</v>
       </c>
       <c r="H6" t="n">
+        <v>318687.9257068649</v>
+      </c>
+      <c r="I6" t="n">
+        <v>318687.9257068649</v>
+      </c>
+      <c r="J6" t="n">
+        <v>182093.1249009698</v>
+      </c>
+      <c r="K6" t="n">
+        <v>318687.9257068649</v>
+      </c>
+      <c r="L6" t="n">
+        <v>178688.6148421121</v>
+      </c>
+      <c r="M6" t="n">
+        <v>296178.6609328173</v>
+      </c>
+      <c r="N6" t="n">
         <v>318687.9257068646</v>
       </c>
-      <c r="I6" t="n">
+      <c r="O6" t="n">
+        <v>318687.9257068649</v>
+      </c>
+      <c r="P6" t="n">
         <v>318687.9257068646</v>
-      </c>
-      <c r="J6" t="n">
-        <v>182093.1249009696</v>
-      </c>
-      <c r="K6" t="n">
-        <v>318687.9257068647</v>
-      </c>
-      <c r="L6" t="n">
-        <v>318687.9257068647</v>
-      </c>
-      <c r="M6" t="n">
-        <v>212393.11368899</v>
-      </c>
-      <c r="N6" t="n">
-        <v>318687.9257068647</v>
-      </c>
-      <c r="O6" t="n">
-        <v>286846.3863915597</v>
-      </c>
-      <c r="P6" t="n">
-        <v>286846.3863915595</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>948.6009133415462</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>948.6009133415462</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>948.6009133415462</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>948.6009133415462</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>426.5373429715206</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>216.9453077912387</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715206</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715206</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>216.9453077912387</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>78.38536331070713</v>
+        <v>235.2752207238901</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27391,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -27594,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>102.7644030305577</v>
       </c>
       <c r="Y4" t="n">
-        <v>137.4342356413307</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>231.7439112705374</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -27667,7 +27669,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -27679,10 +27681,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>14.8321857365367</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>141.1766228028489</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>90.91993183975306</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -27834,10 +27836,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -27856,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>341.0940627096038</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>105.2939281903808</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8650951093846</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>93.3933248039117</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34696,16 +34698,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>244.2170912967377</v>
       </c>
       <c r="M2" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>522.0635703700256</v>
@@ -34720,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,13 +34783,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>117.7337452574859</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>147.5918456237788</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
@@ -34799,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>400.909295520443</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35015,13 +35017,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,7 +35032,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>306.2096305948391</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>460.0037840019794</v>
+        <v>686.5452198667498</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>506.6900639491208</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>832.0152842855368</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35416,7 +35418,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
         <v>760.7889056955737</v>
@@ -35428,7 +35430,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>249.5494861064542</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35495,10 +35497,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>593.9528840943865</v>
       </c>
       <c r="N12" t="n">
-        <v>210.7165365725546</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
@@ -35507,10 +35509,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35659,10 +35661,10 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>325.6181290854549</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
@@ -35726,7 +35728,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>210.7165365725544</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>146.2707129942796</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>353.3782471555388</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>110.3303957334049</v>
       </c>
       <c r="N18" t="n">
-        <v>685.9925074875634</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>453.5286516209802</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>371.6049244215989</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>121.3646874378037</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,19 +37159,19 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629454</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
         <v>667.7658302215033</v>
@@ -37394,16 +37396,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>516.9120523430244</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>90.37376681451964</v>
       </c>
       <c r="N39" t="n">
         <v>882.4829213248665</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>8.984748851187213</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37798,7 +37800,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37862,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>832.0152842855372</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38032,13 +38034,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>260.0477153293937</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>353.1425107818302</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>617.2981931821737</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2045851.377644641</v>
+        <v>2044538.732189061</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789206</v>
+        <v>2166967.111789203</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>170.7481240559725</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>395.3646275917355</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>184.6224357454134</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1960204883557</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>80.12433358548559</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>172.8970899955588</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>93.60791859913577</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>245.262446570573</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>39.23067633573742</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1150,10 +1150,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>28.63433626345935</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -1192,10 +1192,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>34.75288879687128</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>186.5768411754254</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1378,7 +1378,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>101.6409518870421</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1387,7 +1387,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>271.4342543713333</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>85.2543260913488</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>76.26594387726834</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1615,7 +1615,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -1627,7 +1627,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>53.20093248929926</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>97.56310642661438</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>128.2026151578589</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>142.5359303380066</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1861,10 +1861,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>314.0518665500859</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>347.4404954123239</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -2007,22 +2007,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>108.5943265930591</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>66.60889756510008</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2098,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>39.93142548241837</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>330.7262294157703</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
@@ -2298,16 +2298,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>42.53944252214013</v>
       </c>
       <c r="Y22" t="n">
-        <v>55.62709520730909</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>356.9224994274309</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2335,7 +2335,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2380,7 +2380,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>376.8395006836613</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>262.2537570519889</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>114.3571814058518</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>271.4342543713331</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -2572,10 +2572,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>297.1427106764716</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>100.6116716601516</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -2766,16 +2766,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>100.1385694712604</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -2803,13 +2803,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>378.9769832968749</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>85.2997057160983</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2845,7 +2845,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>22.49891413969666</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>55.88642113887552</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3037,19 +3037,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>364.6399937545928</v>
       </c>
     </row>
     <row r="33">
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>229.2663389906592</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>39.04633461472937</v>
       </c>
     </row>
     <row r="35">
@@ -3274,13 +3274,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>384.5327953590509</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>96.0851398248671</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -3426,7 +3426,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>38.79482613622854</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>119.5506408222921</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3508,13 +3508,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>374.7552726386488</v>
+        <v>59.82422708687715</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
@@ -3523,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13.87811084309333</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>83.76217398785609</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>262.2425928248799</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3808,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>43.73227063629162</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>70.36042284486177</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3985,7 +3985,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>373.8316553010464</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>39.93142548241837</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>93.17492089670182</v>
+        <v>193.5927947728082</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.990926276226</v>
+        <v>1277.389703984565</v>
       </c>
       <c r="C2" t="n">
-        <v>160.5180736944356</v>
+        <v>867.2651132978355</v>
       </c>
       <c r="D2" t="n">
-        <v>160.0945478279002</v>
+        <v>462.801183390896</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4336,46 +4336,46 @@
         <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>537.7254774811266</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M2" t="n">
-        <v>537.7254774811266</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>1054.568412147452</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O2" t="n">
-        <v>1571.411346813777</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522213</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>740.1083749522213</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.1717019003114</v>
+        <v>1687.610883649055</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="M3" t="n">
-        <v>558.6080202959273</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="N3" t="n">
-        <v>704.7239474634683</v>
+        <v>751.4208778585607</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329.2045039635594</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1299.499495805762</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U4" t="n">
-        <v>1016.701348351886</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V4" t="n">
-        <v>742.815603291408</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="W4" t="n">
-        <v>463.7459388002824</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="X4" t="n">
-        <v>329.2045039635594</v>
+        <v>624.0814655128718</v>
       </c>
       <c r="Y4" t="n">
-        <v>329.2045039635594</v>
+        <v>399.3457669016365</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>654.2465468795142</v>
+        <v>2007.320611191733</v>
       </c>
       <c r="C5" t="n">
-        <v>648.1623602331883</v>
+        <v>1597.196020505003</v>
       </c>
       <c r="D5" t="n">
-        <v>647.7388343666529</v>
+        <v>1192.732090598063</v>
       </c>
       <c r="E5" t="n">
-        <v>233.3986188835496</v>
+        <v>778.3918751149602</v>
       </c>
       <c r="F5" t="n">
-        <v>216.4086108776412</v>
+        <v>357.3614630686478</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H5" t="n">
         <v>41.76508562960205</v>
@@ -4576,19 +4576,19 @@
         <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N5" t="n">
-        <v>1014.011766457887</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4597,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1465.404399595914</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1064.467726544004</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="6">
@@ -4652,22 +4652,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1207.227134123859</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M6" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O6" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>488.6991486406494</v>
+        <v>533.1412472705574</v>
       </c>
       <c r="C7" t="n">
-        <v>317.6057762023659</v>
+        <v>533.1412472705574</v>
       </c>
       <c r="D7" t="n">
-        <v>158.1111315252759</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="E7" t="n">
-        <v>158.1111315252759</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F7" t="n">
-        <v>158.1111315252759</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1476.610529120012</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1476.610529120012</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1193.812381666136</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V7" t="n">
-        <v>1193.812381666136</v>
+        <v>812.2109117616831</v>
       </c>
       <c r="W7" t="n">
-        <v>914.7427171750103</v>
+        <v>533.1412472705574</v>
       </c>
       <c r="X7" t="n">
-        <v>676.3988550346937</v>
+        <v>533.1412472705574</v>
       </c>
       <c r="Y7" t="n">
-        <v>676.3988550346937</v>
+        <v>533.1412472705574</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2231.056920380548</v>
+        <v>2090.776670956639</v>
       </c>
       <c r="C8" t="n">
-        <v>1820.932329693819</v>
+        <v>1680.652080269909</v>
       </c>
       <c r="D8" t="n">
-        <v>1416.468399786879</v>
+        <v>1641.025134476235</v>
       </c>
       <c r="E8" t="n">
-        <v>1002.128184303776</v>
+        <v>1226.684918993131</v>
       </c>
       <c r="F8" t="n">
-        <v>581.0977722574635</v>
+        <v>805.6545069468189</v>
       </c>
       <c r="G8" t="n">
-        <v>172.3694881502956</v>
+        <v>396.926222839651</v>
       </c>
       <c r="H8" t="n">
-        <v>172.3694881502956</v>
+        <v>86.01772546736895</v>
       </c>
       <c r="I8" t="n">
-        <v>86.01772546736876</v>
+        <v>86.01772546736895</v>
       </c>
       <c r="J8" t="n">
-        <v>340.2031969351231</v>
+        <v>340.2031969351232</v>
       </c>
       <c r="K8" t="n">
-        <v>878.3626980441626</v>
+        <v>878.3626980441627</v>
       </c>
       <c r="L8" t="n">
-        <v>1558.042465712245</v>
+        <v>1236.881458916962</v>
       </c>
       <c r="M8" t="n">
-        <v>2334.361056703999</v>
+        <v>2013.200049908716</v>
       </c>
       <c r="N8" t="n">
-        <v>3087.542073342617</v>
+        <v>2766.381066547334</v>
       </c>
       <c r="O8" t="n">
-        <v>3731.172929759722</v>
+        <v>3410.011922964439</v>
       </c>
       <c r="P8" t="n">
-        <v>4260.329627678873</v>
+        <v>3939.16862088359</v>
       </c>
       <c r="Q8" t="n">
-        <v>4260.329627678873</v>
+        <v>4260.329627678882</v>
       </c>
       <c r="R8" t="n">
-        <v>4300.886273368438</v>
+        <v>4300.886273368447</v>
       </c>
       <c r="S8" t="n">
-        <v>4271.962701385146</v>
+        <v>4165.605198162548</v>
       </c>
       <c r="T8" t="n">
-        <v>4049.756217332004</v>
+        <v>3943.398714109407</v>
       </c>
       <c r="U8" t="n">
-        <v>3792.695725591514</v>
+        <v>3686.338222368917</v>
       </c>
       <c r="V8" t="n">
-        <v>3442.858170927995</v>
+        <v>3686.338222368917</v>
       </c>
       <c r="W8" t="n">
-        <v>3442.858170927995</v>
+        <v>3302.577921504085</v>
       </c>
       <c r="X8" t="n">
-        <v>3042.214773096948</v>
+        <v>2901.934523673038</v>
       </c>
       <c r="Y8" t="n">
-        <v>2641.278100045038</v>
+        <v>2500.997850621128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>764.848567353903</v>
+        <v>764.8485673539033</v>
       </c>
       <c r="C9" t="n">
-        <v>630.8534961028488</v>
+        <v>630.853496102849</v>
       </c>
       <c r="D9" t="n">
-        <v>513.9563383222412</v>
+        <v>513.9563383222414</v>
       </c>
       <c r="E9" t="n">
-        <v>393.4635223145692</v>
+        <v>393.4635223145694</v>
       </c>
       <c r="F9" t="n">
-        <v>284.5036424970738</v>
+        <v>284.503642497074</v>
       </c>
       <c r="G9" t="n">
-        <v>177.5135298114125</v>
+        <v>177.5135298114127</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7663168471286</v>
+        <v>106.7663168471288</v>
       </c>
       <c r="I9" t="n">
-        <v>86.01772546736876</v>
+        <v>86.01772546736895</v>
       </c>
       <c r="J9" t="n">
-        <v>86.01772546736876</v>
+        <v>86.01772546736895</v>
       </c>
       <c r="K9" t="n">
-        <v>86.01772546736876</v>
+        <v>86.01772546736895</v>
       </c>
       <c r="L9" t="n">
-        <v>747.105897386657</v>
+        <v>747.1058973866571</v>
       </c>
       <c r="M9" t="n">
-        <v>747.105897386657</v>
+        <v>879.4448451596377</v>
       </c>
       <c r="N9" t="n">
-        <v>1570.801028829339</v>
+        <v>1753.102937271256</v>
       </c>
       <c r="O9" t="n">
-        <v>1570.801028829339</v>
+        <v>1753.102937271256</v>
       </c>
       <c r="P9" t="n">
-        <v>2132.506921317869</v>
+        <v>1753.102937271256</v>
       </c>
       <c r="Q9" t="n">
-        <v>2132.506921317869</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
         <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>2024.516911432177</v>
+        <v>2024.516911432178</v>
       </c>
       <c r="T9" t="n">
         <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1667.824236757404</v>
+        <v>1667.824236757405</v>
       </c>
       <c r="V9" t="n">
-        <v>1454.112709750438</v>
+        <v>1454.112709750439</v>
       </c>
       <c r="W9" t="n">
         <v>1240.879541486767</v>
@@ -4928,7 +4928,7 @@
         <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>905.1515999894897</v>
+        <v>905.1515999894899</v>
       </c>
     </row>
     <row r="10">
@@ -4938,46 +4938,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>534.2452883269079</v>
+        <v>843.3473881985415</v>
       </c>
       <c r="C10" t="n">
-        <v>534.2452883269079</v>
+        <v>843.3473881985415</v>
       </c>
       <c r="D10" t="n">
-        <v>534.2452883269079</v>
+        <v>683.8527435214515</v>
       </c>
       <c r="E10" t="n">
-        <v>534.2452883269079</v>
+        <v>683.8527435214515</v>
       </c>
       <c r="F10" t="n">
-        <v>369.6141624374992</v>
+        <v>519.2216176320428</v>
       </c>
       <c r="G10" t="n">
-        <v>202.3637713630426</v>
+        <v>351.9712265575862</v>
       </c>
       <c r="H10" t="n">
-        <v>202.3637713630426</v>
+        <v>202.3637713630428</v>
       </c>
       <c r="I10" t="n">
-        <v>86.01772546736876</v>
+        <v>86.01772546736895</v>
       </c>
       <c r="J10" t="n">
-        <v>100.1002748725793</v>
+        <v>100.1002748725795</v>
       </c>
       <c r="K10" t="n">
-        <v>254.6526025948173</v>
+        <v>254.6526025948174</v>
       </c>
       <c r="L10" t="n">
-        <v>514.5497028748778</v>
+        <v>514.549702874878</v>
       </c>
       <c r="M10" t="n">
-        <v>803.813759315371</v>
+        <v>803.8137593153713</v>
       </c>
       <c r="N10" t="n">
-        <v>1084.652541709621</v>
+        <v>1084.652541709622</v>
       </c>
       <c r="O10" t="n">
-        <v>1344.213152036095</v>
+        <v>1344.213152036096</v>
       </c>
       <c r="P10" t="n">
         <v>1549.888592285708</v>
@@ -4989,25 +4989,25 @@
         <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1429.024853968129</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1189.476114944831</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>1001.014659212078</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>1001.014659212078</v>
+        <v>1341.530877027741</v>
       </c>
       <c r="W10" t="n">
-        <v>721.9449947209523</v>
+        <v>1341.530877027741</v>
       </c>
       <c r="X10" t="n">
-        <v>721.9449947209523</v>
+        <v>1103.187014887425</v>
       </c>
       <c r="Y10" t="n">
-        <v>721.9449947209523</v>
+        <v>878.4513162761892</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2512.458907120301</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C11" t="n">
-        <v>2102.334316433571</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D11" t="n">
-        <v>1697.870386526632</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E11" t="n">
-        <v>1283.530171043528</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>862.4997589972158</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>453.771474890048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
         <v>179.5954603735497</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T11" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U11" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V11" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>286.056555253256</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M12" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N12" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O12" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q12" t="n">
         <v>2139.732893541123</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>826.4099627738212</v>
+        <v>179.3591785909751</v>
       </c>
       <c r="C13" t="n">
-        <v>655.3165903355377</v>
+        <v>179.3591785909751</v>
       </c>
       <c r="D13" t="n">
-        <v>495.8219456584478</v>
+        <v>179.3591785909751</v>
       </c>
       <c r="E13" t="n">
-        <v>334.9111305267672</v>
+        <v>179.3591785909751</v>
       </c>
       <c r="F13" t="n">
-        <v>170.2800046373585</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>170.2800046373585</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
         <v>93.2436976906228</v>
@@ -5232,19 +5232,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>1100.295707834299</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V13" t="n">
-        <v>826.4099627738212</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W13" t="n">
-        <v>826.4099627738212</v>
+        <v>830.1384457365714</v>
       </c>
       <c r="X13" t="n">
-        <v>826.4099627738212</v>
+        <v>591.7945835962548</v>
       </c>
       <c r="Y13" t="n">
-        <v>826.4099627738212</v>
+        <v>367.0588849850195</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C14" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D14" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E14" t="n">
-        <v>1320.262653899312</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F14" t="n">
-        <v>899.2322418529996</v>
+        <v>866.6187948158295</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>457.8905107086616</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>146.9820133363796</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5281,7 +5281,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4563.636292181024</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4341.429808127883</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>4084.369316387393</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>3734.531761723874</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>3350.771460859042</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>2950.128063027995</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>2549.191389976085</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>741.8628115185547</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M15" t="n">
-        <v>741.8628115185547</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N15" t="n">
-        <v>1615.520903630173</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O15" t="n">
-        <v>1760.328909494509</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P15" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>554.7454763291312</v>
+        <v>1066.231502096085</v>
       </c>
       <c r="C16" t="n">
-        <v>383.6521038908477</v>
+        <v>895.138129657802</v>
       </c>
       <c r="D16" t="n">
-        <v>383.6521038908477</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E16" t="n">
-        <v>222.7412887591672</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F16" t="n">
-        <v>222.7412887591672</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G16" t="n">
-        <v>222.7412887591672</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W16" t="n">
-        <v>554.7454763291312</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X16" t="n">
-        <v>554.7454763291312</v>
+        <v>1478.666907101365</v>
       </c>
       <c r="Y16" t="n">
-        <v>554.7454763291312</v>
+        <v>1253.93120849013</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2134.851174492981</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C17" t="n">
-        <v>1724.726583806251</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D17" t="n">
-        <v>1320.262653899312</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I17" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674175</v>
       </c>
       <c r="L17" t="n">
-        <v>1598.180070079655</v>
+        <v>1598.180070079656</v>
       </c>
       <c r="M17" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.49866107141</v>
       </c>
       <c r="N17" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710028</v>
       </c>
       <c r="O17" t="n">
         <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046284</v>
       </c>
       <c r="Q17" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R17" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4526.903809325241</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4304.6973252721</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4047.63683353161</v>
       </c>
       <c r="V17" t="n">
-        <v>3730.41272590526</v>
+        <v>3697.799278868091</v>
       </c>
       <c r="W17" t="n">
-        <v>3346.652425040428</v>
+        <v>3314.038978003259</v>
       </c>
       <c r="X17" t="n">
-        <v>2946.009027209381</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y17" t="n">
-        <v>2545.072354157471</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="18">
@@ -5582,7 +5582,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G18" t="n">
         <v>184.7395020346666</v>
@@ -5591,31 +5591,31 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J18" t="n">
-        <v>286.056555253256</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="K18" t="n">
-        <v>286.056555253256</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="L18" t="n">
-        <v>947.1447271725442</v>
+        <v>754.3318696099111</v>
       </c>
       <c r="M18" t="n">
-        <v>1056.371818948615</v>
+        <v>754.3318696099111</v>
       </c>
       <c r="N18" t="n">
-        <v>1056.371818948615</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O18" t="n">
-        <v>1760.328909494509</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P18" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>588.462840695405</v>
+        <v>971.8633271658769</v>
       </c>
       <c r="C19" t="n">
-        <v>417.3694682571215</v>
+        <v>800.7699547275934</v>
       </c>
       <c r="D19" t="n">
-        <v>257.8748235800315</v>
+        <v>800.7699547275934</v>
       </c>
       <c r="E19" t="n">
-        <v>257.8748235800315</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J19" t="n">
         <v>107.3262470958333</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1283.696393154561</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U19" t="n">
-        <v>1000.898245700685</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V19" t="n">
-        <v>1000.898245700685</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W19" t="n">
-        <v>1000.898245700685</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X19" t="n">
-        <v>1000.898245700685</v>
+        <v>1384.298732171156</v>
       </c>
       <c r="Y19" t="n">
-        <v>776.1625470894494</v>
+        <v>1159.563033559921</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2503.174400507722</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C20" t="n">
-        <v>2093.049809820992</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D20" t="n">
-        <v>1688.585879914052</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E20" t="n">
-        <v>1274.245664430949</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F20" t="n">
-        <v>853.2152523846366</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G20" t="n">
-        <v>444.4869682774688</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="H20" t="n">
-        <v>133.5784709051868</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I20" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5770,34 +5770,34 @@
         <v>3771.310534127132</v>
       </c>
       <c r="P20" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046284</v>
       </c>
       <c r="Q20" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R20" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4526.903809325241</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4304.6973252721</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4047.63683353161</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3697.799278868091</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y20" t="n">
-        <v>2913.395580172211</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="21">
@@ -5819,7 +5819,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F21" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G21" t="n">
         <v>184.7395020346666</v>
@@ -5828,28 +5828,28 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I21" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J21" t="n">
-        <v>286.056555253256</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="K21" t="n">
-        <v>741.8628115185547</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="L21" t="n">
-        <v>1402.950983437843</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="M21" t="n">
-        <v>1789.888428857139</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="N21" t="n">
-        <v>1789.888428857139</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O21" t="n">
-        <v>1789.888428857139</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P21" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.7425299376769</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="C22" t="n">
-        <v>413.6491574993933</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="D22" t="n">
-        <v>254.1545128223033</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J22" t="n">
         <v>107.3262470958333</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U22" t="n">
-        <v>828.6312213896092</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V22" t="n">
-        <v>828.6312213896092</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W22" t="n">
-        <v>828.6312213896092</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X22" t="n">
-        <v>828.6312213896092</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y22" t="n">
-        <v>772.4422363317212</v>
+        <v>93.24369769062281</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2151.931129920876</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1741.806539234146</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1337.342609327206</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I23" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6007,34 +6007,34 @@
         <v>3771.310534127132</v>
       </c>
       <c r="P23" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046284</v>
       </c>
       <c r="Q23" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R23" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.124392790651</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6056,7 +6056,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G24" t="n">
         <v>184.7395020346666</v>
@@ -6065,19 +6065,19 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="M24" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="N24" t="n">
         <v>874.0699105066985</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>252.7383423677128</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="C25" t="n">
-        <v>252.7383423677128</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="E25" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J25" t="n">
         <v>107.3262470958333</v>
@@ -6171,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1350.978107866783</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>1068.179960412907</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>794.2942153524291</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W25" t="n">
-        <v>794.2942153524291</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X25" t="n">
-        <v>555.9503532121125</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y25" t="n">
-        <v>440.4380487617572</v>
+        <v>93.24369769062281</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2238.282892603803</v>
+        <v>2452.075282119332</v>
       </c>
       <c r="C26" t="n">
-        <v>1828.158301917073</v>
+        <v>2041.950691432602</v>
       </c>
       <c r="D26" t="n">
-        <v>1423.694372010133</v>
+        <v>1637.486761525663</v>
       </c>
       <c r="E26" t="n">
-        <v>1009.35415652703</v>
+        <v>1223.146546042559</v>
       </c>
       <c r="F26" t="n">
-        <v>588.3237444807176</v>
+        <v>802.1161339962468</v>
       </c>
       <c r="G26" t="n">
-        <v>179.5954603735497</v>
+        <v>393.387849889079</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I26" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6247,31 +6247,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q26" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R26" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4526.903809325241</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4304.6973252721</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4047.63683353161</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4047.63683353161</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3663.876532666779</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3263.233134835731</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2862.296461783821</v>
       </c>
     </row>
     <row r="27">
@@ -6293,7 +6293,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F27" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G27" t="n">
         <v>184.7395020346666</v>
@@ -6302,31 +6302,31 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I27" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="M27" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="N27" t="n">
-        <v>494.6659264600851</v>
+        <v>966.9017898022407</v>
       </c>
       <c r="O27" t="n">
-        <v>1198.623017005979</v>
+        <v>1670.858880348135</v>
       </c>
       <c r="P27" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>311.2176947581669</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="C28" t="n">
-        <v>311.2176947581669</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D28" t="n">
-        <v>311.2176947581669</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E28" t="n">
-        <v>311.2176947581669</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F28" t="n">
-        <v>209.5897435862967</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G28" t="n">
-        <v>209.5897435862967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H28" t="n">
         <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J28" t="n">
         <v>107.3262470958333</v>
@@ -6414,22 +6414,22 @@
         <v>1350.978107866783</v>
       </c>
       <c r="T28" t="n">
-        <v>1111.429368843485</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U28" t="n">
-        <v>828.6312213896092</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V28" t="n">
-        <v>828.6312213896092</v>
+        <v>1249.828037693793</v>
       </c>
       <c r="W28" t="n">
-        <v>549.5615568984836</v>
+        <v>1249.828037693793</v>
       </c>
       <c r="X28" t="n">
-        <v>311.2176947581669</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="Y28" t="n">
-        <v>311.2176947581669</v>
+        <v>1011.484175553476</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F29" t="n">
-        <v>873.3089913790386</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>265.7567792786995</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
@@ -6463,7 +6463,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K29" t="n">
         <v>885.5886702674165</v>
@@ -6478,7 +6478,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6493,22 +6493,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>494.6659264600851</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>494.6659264600851</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M30" t="n">
-        <v>494.6659264600851</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N30" t="n">
-        <v>494.6659264600851</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O30" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P30" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q30" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>276.8806887209868</v>
+        <v>578.280283388802</v>
       </c>
       <c r="C31" t="n">
-        <v>254.1545128223033</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D31" t="n">
-        <v>254.1545128223033</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F31" t="n">
         <v>93.2436976906228</v>
@@ -6645,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U31" t="n">
-        <v>1068.179960412907</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V31" t="n">
-        <v>794.2942153524291</v>
+        <v>1283.393516414289</v>
       </c>
       <c r="W31" t="n">
-        <v>515.2245508613034</v>
+        <v>1004.323851923163</v>
       </c>
       <c r="X31" t="n">
-        <v>276.8806887209868</v>
+        <v>765.9799897828464</v>
       </c>
       <c r="Y31" t="n">
-        <v>276.8806887209868</v>
+        <v>765.9799897828464</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K32" t="n">
         <v>885.5886702674165</v>
@@ -6715,7 +6715,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P32" t="n">
         <v>4300.467232046283</v>
@@ -6745,7 +6745,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="33">
@@ -6782,25 +6782,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>213.3947382540484</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>213.3947382540484</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M33" t="n">
-        <v>1056.371818948615</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N33" t="n">
-        <v>1056.371818948615</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O33" t="n">
-        <v>1760.328909494509</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P33" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.2436976906228</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="C34" t="n">
-        <v>93.2436976906228</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D34" t="n">
         <v>93.2436976906228</v>
@@ -6885,25 +6885,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T34" t="n">
-        <v>1111.429368843485</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U34" t="n">
-        <v>828.6312213896092</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="V34" t="n">
-        <v>597.0490607929837</v>
+        <v>980.6859834725187</v>
       </c>
       <c r="W34" t="n">
-        <v>317.9793963018581</v>
+        <v>701.6163189813931</v>
       </c>
       <c r="X34" t="n">
-        <v>317.9793963018581</v>
+        <v>463.2724568410765</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.2436976906228</v>
+        <v>423.8317148059963</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2140.463105868917</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>1730.338515182187</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1325.874585275247</v>
       </c>
       <c r="E35" t="n">
-        <v>1287.649206862142</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G35" t="n">
         <v>490.5039577458317</v>
@@ -6934,10 +6934,10 @@
         <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674165</v>
@@ -6958,31 +6958,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q35" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R35" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4565.129187738346</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4342.922703685204</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4085.862211944715</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>3736.024657281195</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3352.264356416364</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>2951.620958585316</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2550.684285533406</v>
       </c>
     </row>
     <row r="36">
@@ -7004,7 +7004,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F36" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G36" t="n">
         <v>184.7395020346666</v>
@@ -7013,28 +7013,28 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J36" t="n">
-        <v>286.056555253256</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="K36" t="n">
-        <v>741.8628115185547</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="L36" t="n">
-        <v>1402.950983437843</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="M36" t="n">
-        <v>1402.950983437843</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="N36" t="n">
-        <v>1402.950983437843</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O36" t="n">
-        <v>2106.908073983737</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P36" t="n">
-        <v>2106.908073983737</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.4303907575203</v>
+        <v>530.2905712191235</v>
       </c>
       <c r="C37" t="n">
-        <v>132.4303907575203</v>
+        <v>359.19719878084</v>
       </c>
       <c r="D37" t="n">
-        <v>132.4303907575203</v>
+        <v>359.19719878084</v>
       </c>
       <c r="E37" t="n">
-        <v>132.4303907575203</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F37" t="n">
-        <v>132.4303907575203</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J37" t="n">
         <v>107.3262470958333</v>
@@ -7125,22 +7125,22 @@
         <v>1350.978107866783</v>
       </c>
       <c r="T37" t="n">
-        <v>1111.429368843485</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U37" t="n">
-        <v>1111.429368843485</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V37" t="n">
-        <v>837.543623783007</v>
+        <v>1077.092362806305</v>
       </c>
       <c r="W37" t="n">
-        <v>558.4739592918813</v>
+        <v>956.3341397534846</v>
       </c>
       <c r="X37" t="n">
-        <v>320.1300971515647</v>
+        <v>717.9902776131679</v>
       </c>
       <c r="Y37" t="n">
-        <v>320.1300971515647</v>
+        <v>717.9902776131679</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2102.237727455812</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>1692.113136769082</v>
       </c>
       <c r="D38" t="n">
-        <v>1692.113136769081</v>
+        <v>1287.649206862143</v>
       </c>
       <c r="E38" t="n">
-        <v>1277.772921285978</v>
+        <v>873.3089913790395</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I38" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J38" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7195,31 +7195,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q38" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R38" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4526.903809325241</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4304.6973252721</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4047.63683353161</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>3697.799278868091</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3314.038978003259</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>2913.395580172212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2512.458907120302</v>
       </c>
     </row>
     <row r="39">
@@ -7241,7 +7241,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G39" t="n">
         <v>184.7395020346666</v>
@@ -7250,31 +7250,31 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M39" t="n">
-        <v>182.7137268369972</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N39" t="n">
-        <v>1056.371818948615</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O39" t="n">
-        <v>1760.328909494509</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P39" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>591.0821058804529</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="C40" t="n">
-        <v>419.9887334421693</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="D40" t="n">
-        <v>260.4940887650794</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="E40" t="n">
-        <v>260.4940887650794</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="F40" t="n">
-        <v>260.4940887650794</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I40" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J40" t="n">
         <v>107.3262470958333</v>
@@ -7362,22 +7362,22 @@
         <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>1350.978107866783</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U40" t="n">
-        <v>1068.179960412907</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V40" t="n">
-        <v>1068.179960412907</v>
+        <v>744.0229648362192</v>
       </c>
       <c r="W40" t="n">
-        <v>1068.179960412907</v>
+        <v>744.0229648362192</v>
       </c>
       <c r="X40" t="n">
-        <v>829.8360982725906</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y40" t="n">
-        <v>605.1003996613553</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2503.174400507722</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>2093.049809820992</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.585879914052</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1274.245664430949</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>853.2152523846366</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>444.4869682774688</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K41" t="n">
         <v>885.5886702674165</v>
@@ -7426,7 +7426,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P41" t="n">
         <v>4300.467232046283</v>
@@ -7441,22 +7441,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2913.395580172211</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7496,13 +7496,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N42" t="n">
-        <v>1578.027001052593</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O42" t="n">
         <v>1578.027001052593</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3292.280632587379</v>
+        <v>137.4177084343517</v>
       </c>
       <c r="C43" t="n">
-        <v>3292.280632587379</v>
+        <v>137.4177084343517</v>
       </c>
       <c r="D43" t="n">
-        <v>3132.785987910289</v>
+        <v>137.4177084343517</v>
       </c>
       <c r="E43" t="n">
-        <v>3132.785987910289</v>
+        <v>137.4177084343517</v>
       </c>
       <c r="F43" t="n">
-        <v>3132.785987910289</v>
+        <v>137.4177084343517</v>
       </c>
       <c r="G43" t="n">
-        <v>3132.785987910289</v>
+        <v>137.4177084343517</v>
       </c>
       <c r="H43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>4662.18488453114</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>4591.113750344411</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U43" t="n">
-        <v>4308.315602890535</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V43" t="n">
-        <v>4034.429857830057</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W43" t="n">
-        <v>3755.360193338931</v>
+        <v>600.4972691859036</v>
       </c>
       <c r="X43" t="n">
-        <v>3517.016331198615</v>
+        <v>362.153407045587</v>
       </c>
       <c r="Y43" t="n">
-        <v>3292.280632587379</v>
+        <v>137.4177084343517</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2512.458907120301</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C44" t="n">
-        <v>2102.334316433571</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D44" t="n">
-        <v>1697.870386526632</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>853.2152523846366</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>444.4869682774688</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>133.5784709051868</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7693,7 +7693,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>635.6676409272679</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>1296.755812846556</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M45" t="n">
-        <v>2139.732893541123</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N45" t="n">
-        <v>2139.732893541123</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="P45" t="n">
         <v>2139.732893541123</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3558.234133677597</v>
+        <v>359.19719878084</v>
       </c>
       <c r="C46" t="n">
-        <v>3558.234133677597</v>
+        <v>359.19719878084</v>
       </c>
       <c r="D46" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="E46" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F46" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G46" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>4390.520398086449</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T46" t="n">
-        <v>4150.971659063151</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U46" t="n">
-        <v>4150.971659063151</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V46" t="n">
-        <v>3877.085914002672</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W46" t="n">
-        <v>3782.969832288832</v>
+        <v>359.19719878084</v>
       </c>
       <c r="X46" t="n">
-        <v>3782.969832288832</v>
+        <v>359.19719878084</v>
       </c>
       <c r="Y46" t="n">
-        <v>3558.234133677597</v>
+        <v>359.19719878084</v>
       </c>
     </row>
   </sheetData>
@@ -7984,25 +7984,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>339.7024893595825</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>293.2845869185513</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
@@ -8066,10 +8066,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>200.7852390175288</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
@@ -8078,10 +8078,10 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>333.0441487333853</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8224,22 +8224,22 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>552.9160747585987</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>594.6194560602019</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,25 +8300,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M6" t="n">
-        <v>425.427124839344</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8458,7 +8458,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>782.0306179295947</v>
+        <v>457.6255605606218</v>
       </c>
       <c r="M8" t="n">
         <v>877.4504173780091</v>
@@ -8473,7 +8473,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8540,22 +8540,22 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>191.2399885596099</v>
       </c>
       <c r="N9" t="n">
-        <v>885.2086776792868</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8771,25 +8771,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M12" t="n">
-        <v>651.5171678328039</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>174.1409094511112</v>
       </c>
       <c r="O15" t="n">
-        <v>204.0221919942796</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
         <v>55.82578278461539</v>
@@ -9251,22 +9251,22 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>167.8946794718224</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>174.140909451111</v>
       </c>
       <c r="O18" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>448.4101882023532</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>841.9067396726142</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9728,7 +9728,7 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>841.9067396726143</v>
+        <v>841.9067396726142</v>
       </c>
       <c r="O24" t="n">
         <v>768.8192472281761</v>
@@ -9965,19 +9965,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>458.6703921507826</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>527.8697493391551</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,28 +10193,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>461.302781541648</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,28 +10430,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>177.1904702224191</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>174.1409094511112</v>
       </c>
       <c r="O33" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>841.9067396726142</v>
       </c>
       <c r="O36" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>89.84900189613728</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10904,28 +10904,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>147.9380505529371</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>381.4963798086763</v>
       </c>
       <c r="O39" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11144,16 +11144,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>885.2086776792871</v>
+        <v>841.9067396726143</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
@@ -11375,10 +11375,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>408.9682935664456</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
         <v>723.8803540323523</v>
@@ -11393,7 +11393,7 @@
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>602.1626079691122</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>308.5558614412301</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>36.36515802722585</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>77.73048853916585</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>71.84543676532957</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>32.28731256679831</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>36.36515802722576</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>19.90876548473901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>93.42449318090684</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>32.28731256679816</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>49.19646844041307</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>50.70738038730464</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>170.5443540679648</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23955,7 +23955,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>45.5568195736792</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>49.19646844041284</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>193.4209809967733</v>
       </c>
       <c r="Y22" t="n">
-        <v>166.8612464178138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>49.1964684404137</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>3.083197172521807</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>8.893130557884376</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>108.1311602192711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>134.6847134965115</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>10.65670172208758</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>62.37314297036308</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24654,16 +24654,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>171.0083181386128</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>25.66401796922122</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>146.883524574204</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>215.2604664709978</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>32.28731256679805</v>
       </c>
     </row>
     <row r="33">
@@ -25077,10 +25077,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>41.88054861921404</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>183.4420070103936</v>
       </c>
     </row>
     <row r="35">
@@ -25162,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>32.28731256679839</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>37.84312462897304</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25326,13 +25326,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>126.7830610274835</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>156.7283270239222</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25396,13 +25396,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>42.06483528720054</v>
+        <v>356.9958808389721</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>171.9445984870106</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -25563,7 +25563,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>187.3847136220172</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>45.55681957367926</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>102.5059940158882</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25803,7 +25803,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>104.3791100063063</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -25836,10 +25836,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>166.7928287882031</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>36.36515802722585</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>45.5568195736792</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>183.1040469495125</v>
+        <v>82.68617307340614</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>693576.1442430416</v>
+        <v>693576.1442430418</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>623479.0724909452</v>
+        <v>623479.0724909453</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>623479.0724909453</v>
+        <v>623479.0724909455</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>623479.0724909453</v>
+        <v>623479.0724909456</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>623479.0724909452</v>
+        <v>623479.0724909455</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>623479.0724909455</v>
+        <v>623479.0724909453</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>623479.0724909452</v>
+        <v>623479.0724909455</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>623479.0724909453</v>
+        <v>623479.0724909457</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>623479.0724909453</v>
+        <v>623479.0724909455</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>623479.0724909453</v>
+        <v>623479.0724909455</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>488647.1790973709</v>
+      </c>
+      <c r="C2" t="n">
         <v>488647.1790973708</v>
-      </c>
-      <c r="C2" t="n">
-        <v>488647.1790973707</v>
       </c>
       <c r="D2" t="n">
         <v>488647.1790973708</v>
       </c>
       <c r="E2" t="n">
-        <v>434473.0013026408</v>
+        <v>434473.0013026406</v>
       </c>
       <c r="F2" t="n">
-        <v>434473.0013026408</v>
+        <v>434473.0013026406</v>
       </c>
       <c r="G2" t="n">
         <v>434473.0013026407</v>
       </c>
       <c r="H2" t="n">
-        <v>434473.0013026408</v>
+        <v>434473.0013026407</v>
       </c>
       <c r="I2" t="n">
-        <v>434473.0013026408</v>
+        <v>434473.0013026406</v>
       </c>
       <c r="J2" t="n">
-        <v>434473.0013026408</v>
+        <v>434473.0013026407</v>
       </c>
       <c r="K2" t="n">
-        <v>434473.0013026408</v>
+        <v>434473.0013026406</v>
       </c>
       <c r="L2" t="n">
-        <v>434473.0013026408</v>
+        <v>434473.0013026405</v>
       </c>
       <c r="M2" t="n">
         <v>434473.0013026407</v>
       </c>
       <c r="N2" t="n">
+        <v>434473.0013026407</v>
+      </c>
+      <c r="O2" t="n">
         <v>434473.0013026406</v>
       </c>
-      <c r="O2" t="n">
-        <v>434473.0013026408</v>
-      </c>
       <c r="P2" t="n">
-        <v>434473.0013026406</v>
+        <v>434473.0013026407</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>171827.4689100685</v>
+        <v>171827.4689100691</v>
       </c>
       <c r="E3" t="n">
-        <v>26968.95418093424</v>
+        <v>26968.95418093363</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>139999.3108647527</v>
+        <v>139999.3108647533</v>
       </c>
       <c r="M3" t="n">
-        <v>22509.26477404744</v>
+        <v>22509.26477404698</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>184088.9587438941</v>
       </c>
       <c r="D4" t="n">
-        <v>99895.51658519972</v>
+        <v>99895.51658519937</v>
       </c>
       <c r="E4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090263</v>
       </c>
       <c r="F4" t="n">
         <v>44919.86535090264</v>
@@ -26438,19 +26438,19 @@
         <v>44919.86535090264</v>
       </c>
       <c r="I4" t="n">
-        <v>44919.86535090264</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="J4" t="n">
         <v>44919.86535090265</v>
       </c>
       <c r="K4" t="n">
-        <v>44919.86535090264</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="L4" t="n">
         <v>44919.86535090264</v>
       </c>
       <c r="M4" t="n">
-        <v>44919.86535090264</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="N4" t="n">
         <v>44919.86535090264</v>
@@ -26475,7 +26475,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>99001.07135520026</v>
+        <v>99001.0713552004</v>
       </c>
       <c r="E5" t="n">
         <v>70865.21024487332</v>
@@ -26484,16 +26484,16 @@
         <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="H5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="I5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="J5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="K5" t="n">
         <v>70865.21024487332</v>
@@ -26502,10 +26502,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="M5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="N5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="O5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64233.64538186515</v>
+        <v>64233.6453818652</v>
       </c>
       <c r="C6" t="n">
-        <v>239189.1552749791</v>
+        <v>239189.1552749792</v>
       </c>
       <c r="D6" t="n">
-        <v>117923.1222469023</v>
+        <v>117923.1222469019</v>
       </c>
       <c r="E6" t="n">
-        <v>291718.9715259306</v>
+        <v>291538.3909332819</v>
       </c>
       <c r="F6" t="n">
-        <v>318687.9257068649</v>
+        <v>318507.3451142155</v>
       </c>
       <c r="G6" t="n">
-        <v>318687.9257068647</v>
+        <v>318507.3451142156</v>
       </c>
       <c r="H6" t="n">
-        <v>318687.9257068649</v>
+        <v>318507.3451142156</v>
       </c>
       <c r="I6" t="n">
-        <v>318687.9257068649</v>
+        <v>318507.3451142155</v>
       </c>
       <c r="J6" t="n">
-        <v>182093.1249009698</v>
+        <v>181912.5443083206</v>
       </c>
       <c r="K6" t="n">
-        <v>318687.9257068649</v>
+        <v>318507.3451142155</v>
       </c>
       <c r="L6" t="n">
-        <v>178688.6148421121</v>
+        <v>178508.0342494622</v>
       </c>
       <c r="M6" t="n">
-        <v>296178.6609328173</v>
+        <v>295998.0803401686</v>
       </c>
       <c r="N6" t="n">
-        <v>318687.9257068646</v>
+        <v>318507.3451142156</v>
       </c>
       <c r="O6" t="n">
-        <v>318687.9257068649</v>
+        <v>318507.3451142155</v>
       </c>
       <c r="P6" t="n">
-        <v>318687.9257068646</v>
+        <v>318507.3451142156</v>
       </c>
     </row>
   </sheetData>
@@ -26795,7 +26795,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>1075.22156834211</v>
+        <v>1075.221568342112</v>
       </c>
       <c r="E4" t="n">
         <v>1165.546221132785</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>553.1579979720841</v>
+        <v>553.1579979720862</v>
       </c>
       <c r="E4" t="n">
-        <v>90.32465279067526</v>
+        <v>90.32465279067321</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700257</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720841</v>
+        <v>553.1579979720862</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067526</v>
+        <v>90.32465279067344</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720841</v>
+        <v>553.1579979720862</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067526</v>
+        <v>90.32465279067321</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>235.2752207238901</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>14.8321857365367</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>1.200273584690564</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>102.7644030305577</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>325.994634282359</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>231.7439112705374</v>
-      </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -27669,7 +27669,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -27681,10 +27681,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>90.91993183975306</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>25.88444103930021</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>361.1886142721326</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>105.2939281903808</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,10 +27912,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>151.0698205332327</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>93.3933248039117</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34704,25 +34704,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>244.2170912967377</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,10 +34786,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N3" t="n">
-        <v>147.5918456237788</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
@@ -34798,10 +34798,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>276.3515302285466</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34944,22 +34944,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,25 +35020,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>506.6900639491204</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
-        <v>367.8628411009266</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35178,7 +35178,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>686.5452198667498</v>
+        <v>362.140162497777</v>
       </c>
       <c r="M8" t="n">
         <v>784.1601929209636</v>
@@ -35193,7 +35193,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35260,22 +35260,22 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>133.6757048211925</v>
       </c>
       <c r="N9" t="n">
-        <v>832.0152842855368</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9528840943865</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>120.9475160573612</v>
       </c>
       <c r="O15" t="n">
-        <v>146.2707129942796</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>110.3303957334049</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>120.947516057361</v>
       </c>
       <c r="O18" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>390.8459044639358</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>788.7133462788643</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>788.7133462788644</v>
+        <v>788.7133462788643</v>
       </c>
       <c r="O24" t="n">
         <v>711.0677682281761</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>405.4769987570326</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>567.3796893823536</v>
+        <v>473.6101143363513</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>405.4769987570326</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>121.3646874378037</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>120.9475160573612</v>
       </c>
       <c r="O33" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>788.7133462788643</v>
       </c>
       <c r="O36" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.15638339129857</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N38" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O38" t="n">
         <v>650.1321781990958</v>
@@ -37624,28 +37624,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>90.37376681451964</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>328.3029864149263</v>
       </c>
       <c r="O39" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>832.0152842855372</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
         <v>567.3796893823536</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>353.1425107818302</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>667.7658302215033</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
